--- a/xlsx/FR/policies_win_lose_rural_FR.xlsx
+++ b/xlsx/FR/policies_win_lose_rural_FR.xlsx
@@ -12,30 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">A ban on combustion-engine cars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A green infrastructure program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A carbon tax with cash transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lose a lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither win nor lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win a lot</t>
   </si>
 </sst>
 </file>
@@ -386,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.22216474513522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.124388717956718</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.172487624466526</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.332534212504974</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.266994696734499</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.314775806159927</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.245137389289403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.340292153178189</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.313054839097405</v>
       </c>
     </row>
     <row r="5">
@@ -428,13 +431,27 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.166738001482512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.212275582414565</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.162556048890525</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0334256515878905</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0560488497160299</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.037125681385617</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/policies_win_lose_rural_FR.xlsx
+++ b/xlsx/FR/policies_win_lose_rural_FR.xlsx
@@ -389,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.22216474513522</v>
+        <v>0.20443133931025</v>
       </c>
       <c r="C2" t="n">
-        <v>0.124388717956718</v>
+        <v>0.108732468376302</v>
       </c>
       <c r="D2" t="n">
-        <v>0.172487624466526</v>
+        <v>0.164890412711768</v>
       </c>
     </row>
     <row r="3">
@@ -403,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.332534212504974</v>
+        <v>0.336989864662914</v>
       </c>
       <c r="C3" t="n">
-        <v>0.266994696734499</v>
+        <v>0.283280439735414</v>
       </c>
       <c r="D3" t="n">
-        <v>0.314775806159927</v>
+        <v>0.312713000918458</v>
       </c>
     </row>
     <row r="4">
@@ -417,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.245137389289403</v>
+        <v>0.258722930565055</v>
       </c>
       <c r="C4" t="n">
-        <v>0.340292153178189</v>
+        <v>0.321709331696364</v>
       </c>
       <c r="D4" t="n">
-        <v>0.313054839097405</v>
+        <v>0.314309688468921</v>
       </c>
     </row>
     <row r="5">
@@ -431,13 +431,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.166738001482512</v>
+        <v>0.152081710391074</v>
       </c>
       <c r="C5" t="n">
-        <v>0.212275582414565</v>
+        <v>0.224866938825185</v>
       </c>
       <c r="D5" t="n">
-        <v>0.162556048890525</v>
+        <v>0.170612756011562</v>
       </c>
     </row>
     <row r="6">
@@ -445,13 +445,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0334256515878905</v>
+        <v>0.047774155070707</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0560488497160299</v>
+        <v>0.0614108213667337</v>
       </c>
       <c r="D6" t="n">
-        <v>0.037125681385617</v>
+        <v>0.0374741418892897</v>
       </c>
     </row>
   </sheetData>
